--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560344/JX560344_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560344/JX560344_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89311253277</v>
+        <v>45441.83337939481</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1775_1776del']</t>
+          <t>['1662_1736del', '1756_1870instaataagttgggcaacgtgcaccatctaacgggatgaagtgagtctcttcgtggttcctccttaattcctaacatgtcaacttggacagattcctgttgcatccagtatccggc', '1711_1768instgcccttggtgtttagttgaacaggatggattgcttgagaaacctctaggcatgctg', '1628_1679del', '1754_1858del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89311255595</v>
+        <v>45441.83337941799</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['238a&gt;g']</t>
+          <t>['239_293insgcgggccttccacttttatgctaccaccaaaatactgagtaactaaataccgag', '205_337insaatattgatgtcaacgggatcgctcagaaggagcttttttgtaacgaggtgaaagaccgggatagcttcacattctcgccactgtccctgctcctcttctgagggtcggcctcgaaccacacgatgatcagg', '194_318inscctcatggaccgcccgagttaaatagaggggaatgtgcttcactatcagacagcctacgagtaacgacgtccagagcgtactagttgcagtaaaaatgtcggttacctagcgcagctacttcga', '231_266instctatgtagacatgtatggctcggtcaacatgacc', '202_222inscaacaaacggagcagtatat']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931125791</v>
+        <v>45441.8333794469</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3867g&gt;a']</t>
+          <t>['3811_3939del', '3849_3935insccttccgactcaccttgaccttgcggcattagcttttgtgagattatagaggacgataaaagttcaggagtcgcacgctgtggttc', '3840_3959inscgcatgccttacgtaaatctcaacatggacggtcctccaagatcgcctctgactgacgctggtaaccgaaatcgtccggggtccaccgggcggtactagctatccggccatgaagtatt', '3896_4009insttgattcggggggggtacggcataactcacatctatctttagctataagtttcataagagatgaacgttactagaccctgaattcgctgtaccaaagcaacggttctacacgg', '3834_3947del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89311260224</v>
+        <v>45441.83337947006</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1687_1689del']</t>
+          <t>['1777_1803insaggtctgcgactttgttggttaagta', '1786_1809insaatcggtactttaatttcggctg', '1737_1824instaatccagagcggaggcttgaatgtttcgatttgttcctccgtatcttttgagctactacgtgtccataactgggtagacacacatg', '1601_1653del', '1688_1786del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['220t&gt;a']</t>
+          <t>['152_184insggactcactgagtgaggtcgggcgacccgtcc', '171_306del', '219_323del', '249_369del', '178_271del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89311262409</v>
+        <v>45441.8333794932</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1803t&gt;g']</t>
+          <t>['1669_1806inscttttgcgttcgacggaaaaactatacttagggtcacgaggaatgccttgaacgacgacatatggcatcacaacatagcgacggagttggcgtcctgaaaatctctagggagaacaaatgttagtcattctgtgagc', '1653_1689del', '1583_1671del', '1692_1760instcagcagggacattgccttccagctacttttaccctctgcatcagcggctttggaccgaatagccgcg', '1732_1748del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3816_3818del']</t>
+          <t>['3834_3882insagccgcgtcgatgaacgtacatccgaggcctctgcggatgaatccacc', '3822_3867del', '3823_3894del', '3852_3951instctcgccctttccttctgggtcggacagctttcacgcgacgataccattttgcggccccaggcagtcctttaatgggcacgtgtgcgcggtgcttgtgg', '3898_4025del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89311264288</v>
+        <v>45441.83337951056</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['250_254insacac']</t>
+          <t>['154_262instttttcagcccccgatcctagtatagatatacccggatggaagggcctccagtcttgacgcagagcgttatggagagacactgatagacacttgagtgctggacacaa', '208_357inscccttcccaccggtctaacccctatagcaccttgatacgacctagtgagtgatgaggtcgcacagacaaatttatcaacttaaagttaacgctatatctctcagagccactgtataacaagggaccgaactaagtagccccttactctc', '175_201insgataccggtcattttaacattccaat', '253_303del', '188_251del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3853a&gt;t']</t>
+          <t>['3861_3930instgctttagatatgtatgccgtgacgtgagagttgttcacctgtctaagcagtcagctttaggacctgtc', '3827_3842del', '3880_3957del', '3814_3905del', '3885_3950del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89311266559</v>
+        <v>45441.8333795337</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1663_1666del']</t>
+          <t>['1712_1778del', '1774_1908insctaccggtacatttgcgtatatgacgctctccacacttcgggatgatcagggcgcacgactggctcgcgagcagaccagaaactgcagtttttggcatgggcacgctcatgacgtcgaaggcgctgaggccaat', '1643_1678del', '1781_1926del', '1761_1782inscttgtggagacacggcggtta']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['250c&gt;a']</t>
+          <t>['201_228instcagctgggctggcgttatgctccgtt', '156_210del', '252_383insgacgtaattgatatgagactctagtctcactcgtaattgctactttcacaattggacgcagtaatgtggccataggaaaacgcggtgttatagttatcagtcctacgggtcagcagtactacgtgggacct', '206_262del', '227_308del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3892_3897insagcaa']</t>
+          <t>['3860_3883insagttagatgttcggtgagcacag', '3811_3884inscagactgtaagaacagaaaattgtagatcttcgcaatcaactgcacctttcttagtggctcaaacacgatcag', '3835_3860del', '3810_3958del', '3900_3953del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89311269007</v>
+        <v>45441.8333795569</v>
       </c>
     </row>
   </sheetData>
